--- a/opal-import/dictionaries/vhf.patient-dictionary.xlsx
+++ b/opal-import/dictionaries/vhf.patient-dictionary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t xml:space="preserve">table</t>
   </si>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">Patient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">patient.identifier</t>
@@ -113,6 +110,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -212,10 +210,10 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -265,20 +263,20 @@
       <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -286,25 +284,25 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="K3" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -312,25 +310,25 @@
         <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>18</v>
+      <c r="L4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -338,25 +336,25 @@
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="0" t="n">
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>18</v>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -381,23 +379,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
